--- a/my_test_temp/从模板上删除指定列.xlsx
+++ b/my_test_temp/从模板上删除指定列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="4215"/>
+    <workbookView windowWidth="17595" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C13"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>头像图片</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -31,6 +34,9 @@
     <t>工资</t>
   </si>
   <si>
+    <t>${headImage}</t>
+  </si>
+  <si>
     <t>${no}</t>
   </si>
   <si>
@@ -43,7 +49,19 @@
     <t>${salary}</t>
   </si>
   <si>
-    <t/>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>养老金额</t>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>${oldSalary}</t>
   </si>
 </sst>
 </file>
@@ -56,7 +74,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,17 +83,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -89,51 +106,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +142,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -155,9 +173,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,39 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,19 +243,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,145 +369,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,17 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,11 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,11 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,150 +542,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,37 +1039,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="18.375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" customFormat="1" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1054,14 +1088,46 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="13.625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
